--- a/wrestling/wrestlers/data.xlsx
+++ b/wrestling/wrestlers/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorortega/Library/CloudStorage/Dropbox/vaolh.github.io/wrestling/wrestlers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EF07DE-7B6B-FA4A-8812-FA6E3DB3DA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618327FC-6EEA-794F-A7AA-680B17BBC237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15400" xr2:uid="{74FD2873-E4AA-4948-B113-EA038A02B898}"/>
+    <workbookView xWindow="380" yWindow="600" windowWidth="28040" windowHeight="15400" xr2:uid="{74FD2873-E4AA-4948-B113-EA038A02B898}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Wrestler</t>
   </si>
@@ -78,6 +78,45 @@
   </si>
   <si>
     <t>Steve Austin</t>
+  </si>
+  <si>
+    <t>Kurt Angle</t>
+  </si>
+  <si>
+    <t>Blue Panther</t>
+  </si>
+  <si>
+    <t>Trios Bouts</t>
+  </si>
+  <si>
+    <t>Trios Wins</t>
+  </si>
+  <si>
+    <t>Trios Losses</t>
+  </si>
+  <si>
+    <t>Hulk Hogan</t>
+  </si>
+  <si>
+    <t>Kevin Nash</t>
+  </si>
+  <si>
+    <t>Scott Hall</t>
+  </si>
+  <si>
+    <t>Vader</t>
+  </si>
+  <si>
+    <t>Mil Mascaras</t>
+  </si>
+  <si>
+    <t>Great Muta</t>
+  </si>
+  <si>
+    <t>Bull Nakano</t>
+  </si>
+  <si>
+    <t>Chyna</t>
   </si>
 </sst>
 </file>
@@ -113,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C567E2-FE25-054B-A6E4-E3AC19D2E597}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +505,7 @@
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,20 +539,586 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/wrestling/wrestlers/data.xlsx
+++ b/wrestling/wrestlers/data.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorortega/Library/CloudStorage/Dropbox/vaolh.github.io/wrestling/wrestlers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618327FC-6EEA-794F-A7AA-680B17BBC237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F3A224-F530-C146-AC4B-01ECA8C17566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="600" windowWidth="28040" windowHeight="15400" xr2:uid="{74FD2873-E4AA-4948-B113-EA038A02B898}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Records" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Records!$A$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Wrestler</t>
   </si>
@@ -74,9 +77,6 @@
     <t>Kenta Kobashi</t>
   </si>
   <si>
-    <t>The Rock</t>
-  </si>
-  <si>
     <t>Steve Austin</t>
   </si>
   <si>
@@ -117,6 +117,33 @@
   </si>
   <si>
     <t>Chyna</t>
+  </si>
+  <si>
+    <t>Atlantis</t>
+  </si>
+  <si>
+    <t>Bret Hart</t>
+  </si>
+  <si>
+    <t>Scott Steiner</t>
+  </si>
+  <si>
+    <t>Tiger Mask</t>
+  </si>
+  <si>
+    <t>Blue Demon Jr.</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Shawn Michaels</t>
+  </si>
+  <si>
+    <t>Eddie Guerrero</t>
+  </si>
+  <si>
+    <t>Mitsuharu Misawa</t>
   </si>
 </sst>
 </file>
@@ -489,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C567E2-FE25-054B-A6E4-E3AC19D2E597}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
@@ -540,36 +567,36 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -595,7 +622,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -604,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -619,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -639,13 +666,13 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -657,12 +684,12 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4">
@@ -683,7 +710,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -727,7 +754,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -742,15 +769,15 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
@@ -771,16 +798,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -795,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -804,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -815,10 +842,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -848,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -859,16 +886,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -883,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -895,15 +922,15 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -939,30 +966,30 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -980,18 +1007,18 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1027,30 +1054,30 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1062,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1079,16 +1106,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1103,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1112,16 +1139,373 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{E2C567E2-FE25-054B-A6E4-E3AC19D2E597}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N22">
+      <sortCondition ref="A1:A22"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>